--- a/results/Nitrogen_Estimations.xlsx
+++ b/results/Nitrogen_Estimations.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\minstrel\kinetika\project_mayhem\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63626744-1A66-4206-867F-D9E5CE8466EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C02CDFE-4EC2-448A-B755-BB7E77FD7886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{DA2565EB-2DBB-4544-ABEE-7884703BBC10}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{DA2565EB-2DBB-4544-ABEE-7884703BBC10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="20250129" sheetId="2" r:id="rId2"/>
+    <sheet name="20250206" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>Nitrit</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>Time [min]</t>
   </si>
   <si>
     <t>Discharge</t>
@@ -418,6 +415,55 @@
         <a:xfrm>
           <a:off x="5372100" y="533399"/>
           <a:ext cx="5435251" cy="7247001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>105594</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B68A09D9-72B4-66B9-EE0C-5547C2826AB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534025" y="257175"/>
+          <a:ext cx="5868219" cy="7773485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2811,7 +2857,7 @@
   <dimension ref="B2:AE76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,19 +2890,7 @@
     </row>
     <row r="3" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1">
-        <v>200</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2868,7 +2902,7 @@
       </c>
       <c r="D4" s="1">
         <f>D3/5</f>
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3">
         <f>14/(14+16*2)</f>
@@ -2876,19 +2910,7 @@
       </c>
       <c r="F4" s="4">
         <f>E4*D4</f>
-        <v>12.173913043478262</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
+        <v>6.6956521739130439</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2900,7 +2922,7 @@
       </c>
       <c r="D5" s="1">
         <f>D3*4/5</f>
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="E5" s="3">
         <f>14/(14+16*3)</f>
@@ -2908,13 +2930,7 @@
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>36.129032258064512</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2</v>
-      </c>
-      <c r="M5" s="1">
-        <v>7.55</v>
+        <v>19.870967741935484</v>
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="11"/>
@@ -2927,10 +2943,7 @@
       </c>
       <c r="F6" s="4">
         <f>F5+F4</f>
-        <v>48.302945301542778</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4</v>
+        <v>26.566619915848527</v>
       </c>
       <c r="Z6" s="3"/>
       <c r="AA6" s="11"/>
@@ -2947,9 +2960,6 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="1">
-        <v>6</v>
-      </c>
       <c r="Z7" s="3"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="7"/>
@@ -2961,17 +2971,14 @@
       </c>
       <c r="C8" s="6">
         <f>(C7*F6)/1000</f>
-        <v>0.28981767180925672</v>
+        <v>0.15939971949509119</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1">
         <f>C8*6*1000</f>
-        <v>1738.9060308555404</v>
-      </c>
-      <c r="L8" s="1">
-        <v>8</v>
+        <v>956.39831697054706</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="11"/>
@@ -2979,9 +2986,6 @@
       <c r="AE8" s="9"/>
     </row>
     <row r="9" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L9" s="1">
-        <v>10</v>
-      </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="7"/>
@@ -2992,13 +2996,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="L10" s="1">
-        <v>12</v>
       </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="11"/>
@@ -3011,22 +3012,10 @@
       </c>
       <c r="C11" s="1">
         <f>(C31*C32+100)/1000</f>
-        <v>0.14799999999999999</v>
+        <v>0.13119999999999998</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="L11" s="1">
-        <v>14</v>
-      </c>
-      <c r="M11" s="1">
-        <v>5</v>
-      </c>
-      <c r="N11" s="1">
-        <v>10</v>
-      </c>
-      <c r="O11" s="1">
-        <v>100</v>
       </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="11"/>
@@ -3034,9 +3023,6 @@
       <c r="AE11" s="9"/>
     </row>
     <row r="12" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="1">
-        <v>16</v>
-      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="7"/>
@@ -3046,9 +3032,6 @@
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="1">
-        <v>18</v>
-      </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="7"/>
@@ -3060,13 +3043,10 @@
       </c>
       <c r="C14" s="2">
         <f>(C10/60)*C11</f>
-        <v>1.2333333333333332E-2</v>
+        <v>6.5599999999999999E-3</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L14" s="1">
-        <v>20</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="11"/>
@@ -3079,7 +3059,7 @@
       </c>
       <c r="C15" s="6">
         <f>C14/(C8/1000)</f>
-        <v>42.555491031100772</v>
+        <v>41.15440115440115</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -3107,7 +3087,7 @@
       </c>
       <c r="C17" s="3">
         <f>C15*C16</f>
-        <v>2.1277745515550386</v>
+        <v>2.0577200577200574</v>
       </c>
       <c r="E17" s="5"/>
       <c r="Z17" s="3"/>
@@ -3138,7 +3118,7 @@
       </c>
       <c r="C20" s="3">
         <f>(1440/C10)*C8/1000</f>
-        <v>8.3467489481065943E-2</v>
+        <v>7.6511865357643774E-2</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>19</v>
@@ -3151,7 +3131,7 @@
     <row r="21" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
         <f>C20*365</f>
-        <v>30.46563366058907</v>
+        <v>27.926830855539979</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
@@ -3212,7 +3192,7 @@
     </row>
     <row r="30" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="11"/>
@@ -3224,7 +3204,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>35</v>
@@ -3239,7 +3219,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>37</v>
@@ -3257,7 +3237,7 @@
     </row>
     <row r="34" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="11"/>
@@ -3266,10 +3246,10 @@
     </row>
     <row r="35" spans="2:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="11"/>
@@ -3525,5 +3505,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>